--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H2">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>4091.770213873367</v>
+        <v>62.891541234104</v>
       </c>
       <c r="R2">
-        <v>36825.93192486031</v>
+        <v>566.0238711069361</v>
       </c>
       <c r="S2">
-        <v>0.542641014439477</v>
+        <v>0.08202322285313955</v>
       </c>
       <c r="T2">
-        <v>0.5426410144394771</v>
+        <v>0.08202322285313955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H3">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>334.4156175069724</v>
+        <v>188.0043084834357</v>
       </c>
       <c r="R3">
-        <v>3009.740557562751</v>
+        <v>1692.038776350921</v>
       </c>
       <c r="S3">
-        <v>0.04434941857514672</v>
+        <v>0.2451954426539812</v>
       </c>
       <c r="T3">
-        <v>0.04434941857514672</v>
+        <v>0.2451954426539812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H4">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>196.157045233866</v>
+        <v>110.277055594086</v>
       </c>
       <c r="R4">
-        <v>1765.413407104794</v>
+        <v>992.493500346774</v>
       </c>
       <c r="S4">
-        <v>0.02601388945406934</v>
+        <v>0.1438234670209803</v>
       </c>
       <c r="T4">
-        <v>0.02601388945406934</v>
+        <v>0.1438234670209803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>1201.410005404241</v>
+        <v>32.84664333778667</v>
       </c>
       <c r="R5">
-        <v>10812.69004863817</v>
+        <v>295.61979004008</v>
       </c>
       <c r="S5">
-        <v>0.15932819049317</v>
+        <v>0.04283863129453565</v>
       </c>
       <c r="T5">
-        <v>0.15932819049317</v>
+        <v>0.04283863129453565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>98.18984151995889</v>
@@ -818,10 +818,10 @@
         <v>883.70857367963</v>
       </c>
       <c r="S6">
-        <v>0.01302170758010482</v>
+        <v>0.1280593080542715</v>
       </c>
       <c r="T6">
-        <v>0.01302170758010483</v>
+        <v>0.1280593080542715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>57.59488545457999</v>
@@ -880,10 +880,10 @@
         <v>518.3539690912199</v>
       </c>
       <c r="S7">
-        <v>0.007638099266579684</v>
+        <v>0.07511531808796455</v>
       </c>
       <c r="T7">
-        <v>0.007638099266579685</v>
+        <v>0.07511531808796455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>1381.764905733871</v>
+        <v>37.77756039249866</v>
       </c>
       <c r="R8">
-        <v>12435.88415160484</v>
+        <v>339.9980435324881</v>
       </c>
       <c r="S8">
-        <v>0.1832464363766202</v>
+        <v>0.04926953917996158</v>
       </c>
       <c r="T8">
-        <v>0.1832464363766202</v>
+        <v>0.04926953917996158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>112.9300376237492</v>
@@ -1004,10 +1004,10 @@
         <v>1016.370338613743</v>
       </c>
       <c r="S9">
-        <v>0.01497651797969124</v>
+        <v>0.1472834893383605</v>
       </c>
       <c r="T9">
-        <v>0.01497651797969125</v>
+        <v>0.1472834893383605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>66.240992760938</v>
@@ -1066,10 +1066,10 @@
         <v>596.1689348484419</v>
       </c>
       <c r="S10">
-        <v>0.008784725835140917</v>
+        <v>0.08639158151680536</v>
       </c>
       <c r="T10">
-        <v>0.008784725835140918</v>
+        <v>0.08639158151680536</v>
       </c>
     </row>
   </sheetData>
